--- a/action/actionList_appCore.xlsx
+++ b/action/actionList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E63BB-1F40-4919-8E6F-1DE177C4D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC06832-7171-4DE4-AFEE-71828BC836EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azioni" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="149">
   <si>
     <t>Codice</t>
   </si>
@@ -458,6 +458,21 @@
   </si>
   <si>
     <t>YAMBPRSOH</t>
+  </si>
+  <si>
+    <t>YCLEARCGC</t>
+  </si>
+  <si>
+    <t>C_GIACFCY</t>
+  </si>
+  <si>
+    <t>C_GIACYCOD</t>
+  </si>
+  <si>
+    <t>C_GIACLOC</t>
+  </si>
+  <si>
+    <t>YCALC_GC</t>
   </si>
 </sst>
 </file>
@@ -743,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,19 +824,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,27 +1118,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
@@ -1430,8 +1442,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8"/>
@@ -1440,7 +1452,7 @@
       <c r="E9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>73</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>92</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>75</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>72</v>
       </c>
@@ -1820,12 +1832,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>95</v>
       </c>
@@ -1863,7 +1875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>96</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>99</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>102</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>107</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>103</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>104</v>
       </c>
@@ -2243,12 +2255,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -2286,463 +2298,463 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="23" t="s">
+      <c r="H34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="23" t="s">
+      <c r="J34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>133</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="23" t="s">
+      <c r="H35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="23" t="s">
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>76</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="23" t="s">
+      <c r="C36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="23" t="s">
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="23" t="s">
+      <c r="J36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>141</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="23" t="s">
+      <c r="H37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>142</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="23" t="s">
+      <c r="H38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="23" t="s">
+      <c r="J38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>143</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="23" t="s">
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="23" t="s">
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>122</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="23" t="s">
+      <c r="H40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="23" t="s">
+      <c r="J40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>123</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="23" t="s">
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="23" t="s">
+      <c r="J41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>124</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="23" t="s">
+      <c r="H42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="23" t="s">
+      <c r="J42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="23" t="s">
+      <c r="H43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="23" t="s">
+      <c r="J43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>126</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="23" t="s">
+      <c r="H44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="23" t="s">
+      <c r="J44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>127</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="23" t="s">
+      <c r="H45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="23" t="s">
+      <c r="J45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>129</v>
       </c>
@@ -2780,12 +2792,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>134</v>
       </c>
@@ -2817,205 +2829,205 @@
         <v>20</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="23" t="s">
+      <c r="H49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>132</v>
+      <c r="J49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="23" t="s">
+      <c r="H50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>133</v>
+      <c r="J50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="23" t="s">
+      <c r="H51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>76</v>
+      <c r="J51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>108</v>
+      <c r="H52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="23" t="s">
+      <c r="H53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>108</v>
+      <c r="J53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="26" t="s">
-        <v>140</v>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>19</v>
@@ -3045,18 +3057,18 @@
         <v>20</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="L54" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>134</v>
       </c>
@@ -3094,198 +3106,198 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="23" t="s">
+      <c r="H57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J57" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="23" t="s">
+      <c r="J57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>132</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="23" t="s">
+      <c r="H58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="23" t="s">
+      <c r="J58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>133</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="23" t="s">
+      <c r="H59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="23" t="s">
+      <c r="J59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>76</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="23" t="s">
+      <c r="C60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="23" t="s">
+      <c r="H60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J60" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="23" t="s">
+      <c r="J60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>108</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="23" t="s">
+      <c r="C61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="23" t="s">
+      <c r="H61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="23" t="s">
+      <c r="J61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>108</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B62" s="21" t="s">
@@ -3330,24 +3342,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7762A-9F5A-48B3-BB5D-C3644ACC4874}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:B215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
@@ -3567,7 +3579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>68</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>68</v>
       </c>
@@ -3687,7 +3699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>73</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>73</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>73</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>73</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>73</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>73</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>73</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>73</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>73</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>73</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>92</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>92</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>92</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>69</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>69</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>69</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>69</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>69</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>69</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>69</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>69</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>69</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>69</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>69</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>69</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>75</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>75</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>75</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>75</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>75</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>75</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>75</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>75</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>75</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>75</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>75</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>75</v>
       </c>
@@ -4527,7 +4539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>74</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>74</v>
       </c>
@@ -4567,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>74</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>70</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>70</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>70</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>70</v>
       </c>
@@ -4687,7 +4699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>70</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>70</v>
       </c>
@@ -4727,7 +4739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>70</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>70</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>70</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>70</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>70</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>70</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>70</v>
       </c>
@@ -4867,7 +4879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>71</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>71</v>
       </c>
@@ -4907,7 +4919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>71</v>
       </c>
@@ -4927,7 +4939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>71</v>
       </c>
@@ -4947,7 +4959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>71</v>
       </c>
@@ -4967,7 +4979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>71</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>71</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>71</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>71</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>71</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>71</v>
       </c>
@@ -5087,7 +5099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>71</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>71</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>72</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>72</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>72</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>72</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>72</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>72</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>72</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>72</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>72</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>72</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>72</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>72</v>
       </c>
@@ -5367,7 +5379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>72</v>
       </c>
@@ -5387,7 +5399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>95</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>95</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>95</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>95</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>95</v>
       </c>
@@ -5487,7 +5499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>95</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>95</v>
       </c>
@@ -5527,7 +5539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>95</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>95</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>95</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>95</v>
       </c>
@@ -5607,7 +5619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>95</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>96</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>96</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>96</v>
       </c>
@@ -5687,7 +5699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>97</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>97</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>97</v>
       </c>
@@ -5747,7 +5759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>97</v>
       </c>
@@ -5767,7 +5779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>97</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>97</v>
       </c>
@@ -5807,7 +5819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>97</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>97</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>97</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>97</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>97</v>
       </c>
@@ -5907,7 +5919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>97</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>117</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>117</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>117</v>
       </c>
@@ -5987,7 +5999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>99</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>99</v>
       </c>
@@ -6027,7 +6039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>99</v>
       </c>
@@ -6047,7 +6059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>99</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>99</v>
       </c>
@@ -6087,7 +6099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>99</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>99</v>
       </c>
@@ -6127,7 +6139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>99</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>99</v>
       </c>
@@ -6167,7 +6179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>99</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>99</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>99</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>100</v>
       </c>
@@ -6247,7 +6259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>100</v>
       </c>
@@ -6267,7 +6279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>100</v>
       </c>
@@ -6287,7 +6299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>100</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>100</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>100</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>100</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>100</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>100</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>100</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>100</v>
       </c>
@@ -6447,7 +6459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>100</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>101</v>
       </c>
@@ -6487,7 +6499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>101</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>101</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>101</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>102</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>102</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>102</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>102</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>102</v>
       </c>
@@ -6647,7 +6659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>102</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>102</v>
       </c>
@@ -6687,7 +6699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>102</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>102</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>102</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>102</v>
       </c>
@@ -6767,7 +6779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>102</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>107</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>107</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>107</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>107</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>107</v>
       </c>
@@ -6887,7 +6899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>103</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>103</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>103</v>
       </c>
@@ -6947,7 +6959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>103</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>103</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>103</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>103</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>103</v>
       </c>
@@ -7047,7 +7059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>103</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>103</v>
       </c>
@@ -7087,7 +7099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>103</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>103</v>
       </c>
@@ -7127,7 +7139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>104</v>
       </c>
@@ -7147,7 +7159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>104</v>
       </c>
@@ -7167,7 +7179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>104</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>104</v>
       </c>
@@ -7207,7 +7219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>104</v>
       </c>
@@ -7227,7 +7239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>104</v>
       </c>
@@ -7247,7 +7259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>104</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>104</v>
       </c>
@@ -7287,7 +7299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>104</v>
       </c>
@@ -7307,7 +7319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>104</v>
       </c>
@@ -7327,7 +7339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>104</v>
       </c>
@@ -7347,7 +7359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>104</v>
       </c>
@@ -7366,6 +7378,46 @@
       <c r="F202" s="10" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="26"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="26"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="26"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="26"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="26"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="26"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="26"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="26"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="26"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="26"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="26"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action/actionList_appCore.xlsx
+++ b/action/actionList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40404265-FE2E-4F21-9655-EFFD6642E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD44576-4D54-4DB4-ABB9-752B7EA52F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22800" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azioni" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="351">
   <si>
     <t>Codice</t>
   </si>
@@ -980,6 +980,105 @@
   </si>
   <si>
     <t>(7)YCSTK</t>
+  </si>
+  <si>
+    <t>YASSOHSOH</t>
+  </si>
+  <si>
+    <t>SOHTYP</t>
+  </si>
+  <si>
+    <t>ORDDAT</t>
+  </si>
+  <si>
+    <t>BPRNUM</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>DEMDLVDAT</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>GROPRI</t>
+  </si>
+  <si>
+    <t>DISCRGVAL1</t>
+  </si>
+  <si>
+    <t>DISCRGVAL2</t>
+  </si>
+  <si>
+    <t>NETPRI</t>
+  </si>
+  <si>
+    <t>YTOTALE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Tipo Ordine</t>
+  </si>
+  <si>
+    <t>Data Ordine</t>
+  </si>
+  <si>
+    <t>Terzo</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>Data Consegna</t>
+  </si>
+  <si>
+    <t>Quantità</t>
+  </si>
+  <si>
+    <t>Prezzo Lordo</t>
+  </si>
+  <si>
+    <t>Sconto1</t>
+  </si>
+  <si>
+    <t>Sconto2</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Prezzo netto</t>
+  </si>
+  <si>
+    <t>YCODICE</t>
+  </si>
+  <si>
+    <t>EANCOD</t>
+  </si>
+  <si>
+    <t>YLOC</t>
+  </si>
+  <si>
+    <t>Codice Art-Eancod-Matricola</t>
+  </si>
+  <si>
+    <t>Cod.EAN</t>
+  </si>
+  <si>
+    <t>Ubicazione Custom</t>
+  </si>
+  <si>
+    <t>Unità magazzino</t>
+  </si>
+  <si>
+    <t>Unità di Vendita</t>
   </si>
 </sst>
 </file>
@@ -1153,17 +1252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1181,26 +1269,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1329,30 +1397,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1404,11 +1448,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,6 +1546,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,34 +1564,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,17 +1582,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,99 +1612,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1890,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
@@ -1949,64 +1994,64 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="52" t="s">
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2047,7 +2092,7 @@
       <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2088,7 +2133,7 @@
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2129,7 +2174,7 @@
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2170,7 +2215,7 @@
       <c r="L7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2211,7 +2256,7 @@
       <c r="L8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2252,53 +2297,53 @@
       <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="52" t="s">
+      <c r="K10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2312,7 +2357,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8"/>
@@ -2322,43 +2367,43 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="18" t="s">
+      <c r="J13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="52" t="s">
+      <c r="L13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2399,7 +2444,7 @@
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="M14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2440,7 +2485,7 @@
       <c r="L15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2481,7 +2526,7 @@
       <c r="L16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2522,7 +2567,7 @@
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2563,7 +2608,7 @@
       <c r="L18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2604,7 +2649,7 @@
       <c r="L19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2645,7 +2690,7 @@
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="M20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2686,94 +2731,94 @@
       <c r="L21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21" t="s">
+      <c r="H22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="21" t="s">
+      <c r="J22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="52" t="s">
+      <c r="L22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="J24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="52" t="s">
+      <c r="L24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2814,7 +2859,7 @@
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2855,7 +2900,7 @@
       <c r="L26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2896,7 +2941,7 @@
       <c r="L27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2937,7 +2982,7 @@
       <c r="L28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2978,7 +3023,7 @@
       <c r="L29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3019,7 +3064,7 @@
       <c r="L30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3060,7 +3105,7 @@
       <c r="L31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3101,7 +3146,7 @@
       <c r="L32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3142,94 +3187,94 @@
       <c r="L33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="21" t="s">
+      <c r="H34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="21" t="s">
+      <c r="J34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="52" t="s">
+      <c r="L34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="18" t="s">
+      <c r="H36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="18" t="s">
+      <c r="J36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="L36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="52" t="s">
+      <c r="L36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3270,7 +3315,7 @@
       <c r="L37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3311,7 +3356,7 @@
       <c r="L38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="52" t="s">
+      <c r="M38" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3352,7 +3397,7 @@
       <c r="L39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="52" t="s">
+      <c r="M39" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3393,7 +3438,7 @@
       <c r="L40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3434,7 +3479,7 @@
       <c r="L41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="52" t="s">
+      <c r="M41" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3475,7 +3520,7 @@
       <c r="L42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="52" t="s">
+      <c r="M42" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3516,7 +3561,7 @@
       <c r="L43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3557,7 +3602,7 @@
       <c r="L44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="52" t="s">
+      <c r="M44" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3598,7 +3643,7 @@
       <c r="L45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3639,7 +3684,7 @@
       <c r="L46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="52" t="s">
+      <c r="M46" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3680,7 +3725,7 @@
       <c r="L47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="52" t="s">
+      <c r="M47" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3721,94 +3766,94 @@
       <c r="L48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M48" s="52" t="s">
+      <c r="M48" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="21" t="s">
+      <c r="H49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="21" t="s">
+      <c r="J49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L49" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="52" t="s">
+      <c r="L49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="18" t="s">
+      <c r="H51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="18" t="s">
+      <c r="J51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M51" s="52" t="s">
+      <c r="L51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3849,7 +3894,7 @@
       <c r="L52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="52" t="s">
+      <c r="M52" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3890,7 +3935,7 @@
       <c r="L53" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="52" t="s">
+      <c r="M53" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3931,7 +3976,7 @@
       <c r="L54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="52" t="s">
+      <c r="M54" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3972,7 +4017,7 @@
       <c r="L55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="52" t="s">
+      <c r="M55" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4013,94 +4058,94 @@
       <c r="L56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M56" s="52" t="s">
+      <c r="M56" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="C57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="21" t="s">
+      <c r="H57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="21" t="s">
+      <c r="J57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L57" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="52" t="s">
+      <c r="L57" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="18" t="s">
+      <c r="H59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="18" t="s">
+      <c r="J59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="52" t="s">
+      <c r="L59" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4141,7 +4186,7 @@
       <c r="L60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="52" t="s">
+      <c r="M60" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4182,7 +4227,7 @@
       <c r="L61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M61" s="52" t="s">
+      <c r="M61" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4223,7 +4268,7 @@
       <c r="L62" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M62" s="52" t="s">
+      <c r="M62" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4305,7 +4350,7 @@
       <c r="L64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="52" t="s">
+      <c r="M64" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4346,7 +4391,7 @@
       <c r="L65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="52" t="s">
+      <c r="M65" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4387,94 +4432,94 @@
       <c r="L66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M66" s="52" t="s">
+      <c r="M66" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="21" t="s">
+      <c r="C67" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="21" t="s">
+      <c r="H67" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="21" t="s">
+      <c r="J67" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="L67" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="52" t="s">
+      <c r="L67" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="C69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="18" t="s">
+      <c r="H69" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="18" t="s">
+      <c r="J69" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L69" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="52" t="s">
+      <c r="L69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4515,7 +4560,7 @@
       <c r="L70" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="52" t="s">
+      <c r="M70" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4556,94 +4601,94 @@
       <c r="L71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M71" s="52" t="s">
+      <c r="M71" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="21" t="s">
+      <c r="C72" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="21" t="s">
+      <c r="H72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J72" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="20" t="s">
+      <c r="J72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="L72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="52" t="s">
+      <c r="L72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="18" t="s">
+      <c r="C74" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="54" t="s">
+      <c r="H74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J74" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="54" t="s">
+      <c r="J74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="L74" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="55" t="s">
+      <c r="L74" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4651,414 +4696,414 @@
       <c r="A75" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="56" t="s">
+      <c r="C75" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="56" t="s">
+      <c r="E75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F75" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="56" t="s">
+      <c r="G75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="52" t="s">
+      <c r="H75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="56" t="s">
+      <c r="J75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L75" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="57" t="s">
+      <c r="L75" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="56" t="s">
+      <c r="C76" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="52" t="s">
+      <c r="H76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" s="52" t="s">
+      <c r="J76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="L76" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="57" t="s">
+      <c r="L76" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="56" t="s">
+      <c r="C77" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="56" t="s">
+      <c r="E77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F77" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="56" t="s">
+      <c r="G77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="52" t="s">
+      <c r="H77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J77" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="52" t="s">
+      <c r="J77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="57" t="s">
+      <c r="L77" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C78" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="56" t="s">
+      <c r="C78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="56" t="s">
+      <c r="E78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="56" t="s">
+      <c r="F78" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="52" t="s">
+      <c r="H78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="52" t="s">
+      <c r="J78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="L78" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="57" t="s">
+      <c r="L78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="56" t="s">
+      <c r="C79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="56" t="s">
+      <c r="G79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="52" t="s">
+      <c r="H79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="52" t="s">
+      <c r="J79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="L79" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="57" t="s">
+      <c r="L79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="56" t="s">
+      <c r="C80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="52" t="s">
+      <c r="H80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J80" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="52" t="s">
+      <c r="J80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="L80" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="57" t="s">
+      <c r="L80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="21" t="s">
+      <c r="C81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="58" t="s">
+      <c r="H81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" s="58" t="s">
+      <c r="J81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="L81" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="59" t="s">
+      <c r="L81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="18" t="s">
+      <c r="C83" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="54" t="s">
+      <c r="H83" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J83" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" s="54" t="s">
+      <c r="J83" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L83" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="55" t="s">
+      <c r="L83" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="56" t="s">
+      <c r="C84" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="56" t="s">
+      <c r="F84" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="56" t="s">
+      <c r="G84" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="52" t="s">
+      <c r="H84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J84" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" s="52" t="s">
+      <c r="J84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L84" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="57" t="s">
+      <c r="L84" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="56" t="s">
+      <c r="C85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G85" s="56" t="s">
+      <c r="G85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="52" t="s">
+      <c r="H85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J85" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="56" t="s">
+      <c r="J85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L85" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M85" s="57" t="s">
+      <c r="L85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5066,40 +5111,40 @@
       <c r="A86" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="56" t="s">
+      <c r="C86" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="56" t="s">
+      <c r="E86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="56" t="s">
+      <c r="F86" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="52" t="s">
+      <c r="H86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J86" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="56" t="s">
+      <c r="J86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L86" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="57" t="s">
+      <c r="L86" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5107,40 +5152,40 @@
       <c r="A87" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="56" t="s">
+      <c r="C87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="56" t="s">
+      <c r="F87" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G87" s="56" t="s">
+      <c r="G87" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="52" t="s">
+      <c r="H87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J87" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="56" t="s">
+      <c r="J87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="L87" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="57" t="s">
+      <c r="L87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5148,34 +5193,34 @@
       <c r="A88" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="56" t="s">
+      <c r="C88" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="56" t="s">
+      <c r="G88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" s="52" t="s">
+      <c r="H88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J88" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="56" t="s">
+      <c r="J88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L88" s="7" t="s">
@@ -5189,40 +5234,40 @@
       <c r="A89" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="56" t="s">
+      <c r="C89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="56" t="s">
+      <c r="F89" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="52" t="s">
+      <c r="H89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J89" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="56" t="s">
+      <c r="J89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="L89" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="57" t="s">
+      <c r="L89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5230,40 +5275,40 @@
       <c r="A90" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="56" t="s">
+      <c r="C90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="56" t="s">
+      <c r="F90" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="56" t="s">
+      <c r="G90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H90" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" s="52" t="s">
+      <c r="H90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J90" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" s="56" t="s">
+      <c r="J90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="L90" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="57" t="s">
+      <c r="L90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5271,34 +5316,34 @@
       <c r="A91" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="56" t="s">
+      <c r="C91" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G91" s="56" t="s">
+      <c r="G91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="52" t="s">
+      <c r="H91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J91" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K91" s="56" t="s">
+      <c r="J91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L91" s="7" t="s">
@@ -5312,40 +5357,40 @@
       <c r="A92" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="56" t="s">
+      <c r="C92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G92" s="56" t="s">
+      <c r="G92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H92" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" s="52" t="s">
+      <c r="H92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J92" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K92" s="56" t="s">
+      <c r="J92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="L92" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M92" s="57" t="s">
+      <c r="L92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5353,40 +5398,40 @@
       <c r="A93" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="56" t="s">
+      <c r="C93" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="56" t="s">
+      <c r="F93" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G93" s="56" t="s">
+      <c r="G93" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" s="52" t="s">
+      <c r="H93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J93" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K93" s="56" t="s">
+      <c r="J93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L93" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M93" s="57" t="s">
+      <c r="L93" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5394,37 +5439,37 @@
       <c r="A94" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="56" t="s">
+      <c r="C94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="G94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="52" t="s">
+      <c r="H94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J94" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K94" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" s="52" t="s">
+      <c r="J94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="8" t="s">
         <v>281</v>
       </c>
       <c r="M94" s="7" t="s">
@@ -5435,40 +5480,40 @@
       <c r="A95" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="56" t="s">
+      <c r="C95" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="56" t="s">
+      <c r="F95" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="52" t="s">
+      <c r="H95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J95" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K95" s="56" t="s">
+      <c r="J95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L95" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M95" s="57" t="s">
+      <c r="L95" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5476,40 +5521,40 @@
       <c r="A96" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="56" t="s">
+      <c r="C96" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="56" t="s">
+      <c r="F96" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="56" t="s">
+      <c r="G96" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" s="52" t="s">
+      <c r="H96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J96" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K96" s="56" t="s">
+      <c r="J96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="L96" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="57" t="s">
+      <c r="L96" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5517,37 +5562,37 @@
       <c r="A97" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="56" t="s">
+      <c r="C97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="56" t="s">
+      <c r="G97" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H97" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97" s="52" t="s">
+      <c r="H97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J97" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" s="52" t="s">
+      <c r="J97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="8" t="s">
         <v>281</v>
       </c>
       <c r="M97" s="7" t="s">
@@ -5558,40 +5603,40 @@
       <c r="A98" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="56" t="s">
+      <c r="C98" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="56" t="s">
+      <c r="F98" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G98" s="56" t="s">
+      <c r="G98" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" s="52" t="s">
+      <c r="H98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J98" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K98" s="56" t="s">
+      <c r="J98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="L98" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="57" t="s">
+      <c r="L98" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5599,40 +5644,40 @@
       <c r="A99" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="56" t="s">
+      <c r="C99" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="E99" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="56" t="s">
+      <c r="F99" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G99" s="56" t="s">
+      <c r="G99" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" s="52" t="s">
+      <c r="H99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J99" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K99" s="56" t="s">
+      <c r="J99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="L99" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="57" t="s">
+      <c r="L99" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5640,40 +5685,40 @@
       <c r="A100" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="56" t="s">
+      <c r="C100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="56" t="s">
+      <c r="F100" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G100" s="56" t="s">
+      <c r="G100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I100" s="52" t="s">
+      <c r="H100" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J100" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K100" s="56" t="s">
+      <c r="J100" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="L100" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="57" t="s">
+      <c r="L100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5681,37 +5726,37 @@
       <c r="A101" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C101" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="56" t="s">
+      <c r="C101" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="56" t="s">
+      <c r="F101" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I101" s="52" t="s">
+      <c r="H101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J101" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K101" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" s="52" t="s">
+      <c r="J101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="8" t="s">
         <v>281</v>
       </c>
       <c r="M101" s="7" t="s">
@@ -5719,43 +5764,43 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C102" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="21" t="s">
+      <c r="C102" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="E102" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="G102" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I102" s="58" t="s">
+      <c r="H102" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J102" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K102" s="21" t="s">
+      <c r="J102" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="L102" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="M102" s="59" t="s">
+      <c r="L102" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5770,11 +5815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7762A-9F5A-48B3-BB5D-C3644ACC4874}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174:F177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5782,9 +5827,9 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5809,37 +5854,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -5859,19 +5904,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -5879,7 +5924,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -5899,19 +5944,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -5919,7 +5964,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -5939,7 +5984,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -5959,7 +6004,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
@@ -5977,7 +6022,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
@@ -5995,7 +6040,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
@@ -6013,7 +6058,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -6031,7 +6076,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
@@ -6049,7 +6094,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -6067,29 +6112,27 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
@@ -6107,49 +6150,45 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>92</v>
-      </c>
+      <c r="A20" s="32"/>
       <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
@@ -6167,57 +6206,50 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="E21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -6237,7 +6269,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -6257,7 +6289,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -6277,17 +6309,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -6295,17 +6329,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -6313,7 +6349,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
@@ -6331,7 +6369,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
@@ -6349,7 +6387,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
@@ -6367,7 +6405,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="8" t="s">
         <v>60</v>
       </c>
@@ -6385,7 +6423,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
         <v>61</v>
       </c>
@@ -6403,17 +6441,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -6421,7 +6459,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -6441,9 +6479,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>96</v>
-      </c>
+      <c r="A36" s="36"/>
       <c r="B36" s="8" t="s">
         <v>87</v>
       </c>
@@ -6461,19 +6497,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -6481,29 +6515,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="A39" s="36"/>
       <c r="B39" s="8" t="s">
         <v>87</v>
       </c>
@@ -6521,19 +6553,17 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -6541,39 +6571,37 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="56" t="s">
+      <c r="D42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -6581,9 +6609,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="A43" s="36"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -6601,19 +6627,17 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="16" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -6621,194 +6645,173 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A46" s="36"/>
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>66</v>
+      <c r="A47" s="36"/>
+      <c r="B47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A48" s="36"/>
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E49" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>18</v>
+      <c r="A51" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="56" t="s">
+      <c r="A52" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>102</v>
+      <c r="A53" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>102</v>
+      <c r="A54" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>55</v>
@@ -6817,18 +6820,18 @@
         <v>66</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>102</v>
+      <c r="A55" s="36" t="s">
+        <v>142</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>55</v>
@@ -6837,1147 +6840,1122 @@
         <v>66</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>18</v>
+      <c r="A56" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>18</v>
+      <c r="A57" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>67</v>
+      <c r="A58" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>107</v>
+      <c r="A59" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>107</v>
+      <c r="A60" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="D70" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="16" t="s">
+      <c r="F70" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C71" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="E71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="D74" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
+      <c r="B76" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C81" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D81" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E81" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="56" t="s">
+      <c r="F81" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C82" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="56" t="s">
+      <c r="D82" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="E82" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="56" t="s">
+      <c r="C83" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+      <c r="B84" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
+      <c r="B85" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
+      <c r="B86" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
+      <c r="B87" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
+      <c r="B88" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
+      <c r="B89" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C90" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+      <c r="B95" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
+      <c r="B96" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
+      <c r="B97" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="36"/>
+      <c r="B98" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="36"/>
+      <c r="B99" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="36"/>
+      <c r="B100" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="36"/>
+      <c r="B101" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="36"/>
+      <c r="B102" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
+      <c r="B103" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="36"/>
+      <c r="B104" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
+      <c r="B105" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="36"/>
+      <c r="B106" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="E106" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="56" t="s">
+      <c r="F113" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="37"/>
+      <c r="B114" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C114" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D114" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="F86" s="70"/>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-    </row>
-    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="F88" s="70"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="8" t="s">
+      <c r="E114" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="37"/>
+      <c r="B115" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
-      <c r="B96" s="56" t="s">
+      <c r="D115" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="56" t="s">
+      <c r="C116" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D96" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="45"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B109" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D109" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E113" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D116" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" s="56" t="s">
+      <c r="D116" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F116" s="9" t="s">
@@ -7985,7 +7963,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
+      <c r="A117" s="37"/>
       <c r="B117" s="8" t="s">
         <v>170</v>
       </c>
@@ -8003,7 +7981,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
+      <c r="A118" s="37"/>
       <c r="B118" s="8" t="s">
         <v>174</v>
       </c>
@@ -8021,1090 +7999,1383 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="38"/>
+      <c r="B119" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="D119" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
+      <c r="B122" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="49"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="37"/>
+      <c r="B128" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="37"/>
+      <c r="B129" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="37"/>
+      <c r="B130" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="37"/>
+      <c r="B131" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C131" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="37"/>
+      <c r="B132" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="37"/>
+      <c r="B133" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D133" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="37"/>
+      <c r="B134" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="37"/>
+      <c r="B135" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="37"/>
+      <c r="B136" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="37"/>
+      <c r="B137" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C137" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="8" t="s">
+      <c r="D137" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="37"/>
+      <c r="B138" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C138" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="B122" s="16" t="s">
+      <c r="D138" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="38"/>
+      <c r="B139" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C139" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B123" s="12" t="s">
+      <c r="D139" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C123" s="60" t="s">
+      <c r="C140" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D140" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E140" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="8" t="s">
+      <c r="F140" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="37"/>
+      <c r="B141" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="8" t="s">
+      <c r="D141" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="37"/>
+      <c r="B142" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="8" t="s">
+      <c r="D142" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="37"/>
+      <c r="B143" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="8" t="s">
+      <c r="D143" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="37"/>
+      <c r="B144" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="56" t="s">
+      <c r="F144" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="37"/>
+      <c r="B145" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="56" t="s">
+      <c r="C145" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="56" t="s">
+      <c r="D145" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E128" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="56" t="s">
+      <c r="E145" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="37"/>
+      <c r="B146" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C129" s="56" t="s">
+      <c r="C146" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D129" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E129" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="56" t="s">
+      <c r="D146" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="37"/>
+      <c r="B147" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C130" s="56" t="s">
+      <c r="C147" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D130" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="8" t="s">
+      <c r="D147" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="37"/>
+      <c r="B148" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="8" t="s">
+      <c r="D148" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="37"/>
+      <c r="B149" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="8" t="s">
+      <c r="D149" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="37"/>
+      <c r="B150" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="8" t="s">
+      <c r="D150" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="8" t="s">
+      <c r="D151" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="37"/>
+      <c r="B152" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C152" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="8" t="s">
+      <c r="D152" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="37"/>
+      <c r="B153" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="16" t="s">
+      <c r="D153" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="38"/>
+      <c r="B154" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C154" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
+      <c r="D154" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="F138" s="70"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="67" t="s">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B139" s="61" t="s">
+      <c r="B156" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="61" t="s">
+      <c r="C156" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F139" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="68" t="s">
+      <c r="D156" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B140" s="52" t="s">
+      <c r="B157" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C157" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D140" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E140" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F140" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="47" t="s">
+      <c r="D157" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B141" s="52" t="s">
+      <c r="B158" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C158" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D141" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E141" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F141" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="47" t="s">
+      <c r="D158" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B159" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C159" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="56" t="s">
+      <c r="D159" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E142" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F142" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="47" t="s">
+      <c r="E159" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="B143" s="52" t="s">
+      <c r="B160" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C160" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E143" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F143" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="47" t="s">
+      <c r="D160" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="52" t="s">
+      <c r="B161" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C144" s="52" t="s">
+      <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D144" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E144" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F144" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+      <c r="D161" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="B145" s="56" t="s">
+      <c r="B162" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="56" t="s">
+      <c r="C162" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D145" s="56" t="s">
+      <c r="D162" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E145" s="56" t="s">
+      <c r="E162" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F145" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="47" t="s">
+      <c r="F162" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B146" s="56" t="s">
+      <c r="B163" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C146" s="56" t="s">
+      <c r="C163" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="56" t="s">
+      <c r="D163" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E146" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F146" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="50" t="s">
+      <c r="E163" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B164" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C147" s="56" t="s">
+      <c r="C164" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D147" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E147" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F147" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="56" t="s">
+      <c r="D164" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="37"/>
+      <c r="B165" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C148" s="56" t="s">
+      <c r="C165" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D148" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E148" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F148" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
-      <c r="B149" s="56" t="s">
+      <c r="D165" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="36"/>
+      <c r="B166" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C149" s="56" t="s">
+      <c r="C166" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D149" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E149" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F149" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
-      <c r="B150" s="56" t="s">
+      <c r="D166" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="36"/>
+      <c r="B167" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C150" s="56" t="s">
+      <c r="C167" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D150" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E150" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F150" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="56" t="s">
+      <c r="D167" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="37"/>
+      <c r="B168" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C151" s="56" t="s">
+      <c r="C168" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D151" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E151" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F151" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
-      <c r="B152" s="56" t="s">
+      <c r="D168" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="36"/>
+      <c r="B169" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C152" s="56" t="s">
+      <c r="C169" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E152" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F152" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
-      <c r="B153" s="56" t="s">
+      <c r="D169" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="36"/>
+      <c r="B170" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C153" s="56" t="s">
+      <c r="C170" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D153" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E153" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F153" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="56" t="s">
+      <c r="D170" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="37"/>
+      <c r="B171" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="56" t="s">
+      <c r="C171" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D154" s="56" t="s">
+      <c r="D171" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E154" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F154" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
-      <c r="B155" s="16" t="s">
+      <c r="E171" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="38"/>
+      <c r="B172" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C172" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D155" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F155" s="64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="72" t="s">
+      <c r="D172" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C173" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D156" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E156" s="12" t="s">
+      <c r="D173" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
-      <c r="B157" s="56" t="s">
+      <c r="F173" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="36"/>
+      <c r="B174" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C157" s="56" t="s">
+      <c r="C174" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D157" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E157" s="56" t="s">
+      <c r="D174" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="69"/>
-      <c r="B158" s="16" t="s">
+      <c r="F174" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="39"/>
+      <c r="B175" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C175" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D175" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E158" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="65" t="s">
+      <c r="E175" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B159" s="61" t="s">
+      <c r="B176" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C159" s="61" t="s">
+      <c r="C176" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E159" s="12" t="s">
+      <c r="D176" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F159" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="47"/>
-      <c r="B160" s="56" t="s">
+      <c r="F176" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="36"/>
+      <c r="B177" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C177" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D160" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E160" s="56" t="s">
+      <c r="D177" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F160" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="50"/>
-      <c r="B161" s="16" t="s">
+      <c r="F177" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="39"/>
+      <c r="B178" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C178" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D178" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E161" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="65" t="s">
+      <c r="E178" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="B162" s="61" t="s">
+      <c r="B179" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="61" t="s">
+      <c r="C179" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D162" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E162" s="56" t="s">
+      <c r="D179" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F162" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="47"/>
-      <c r="B163" s="56" t="s">
+      <c r="F179" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="36"/>
+      <c r="B180" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C163" s="56" t="s">
+      <c r="C180" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D163" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E163" s="56" t="s">
+      <c r="D180" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F163" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
-      <c r="B164" s="16" t="s">
+      <c r="F180" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="39"/>
+      <c r="B181" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C181" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D181" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E164" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F164" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="65" t="s">
+      <c r="E181" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B165" s="61" t="s">
+      <c r="B182" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C165" s="61" t="s">
+      <c r="C182" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D165" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E165" s="12" t="s">
+      <c r="D182" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F165" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="47"/>
-      <c r="B166" s="52" t="s">
+      <c r="F182" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="36"/>
+      <c r="B183" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="52" t="s">
+      <c r="C183" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D166" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E166" s="56" t="s">
+      <c r="D183" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F166" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="47"/>
-      <c r="B167" s="56" t="s">
+      <c r="F183" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="36"/>
+      <c r="B184" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C167" s="56" t="s">
+      <c r="C184" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D167" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E167" s="56" t="s">
+      <c r="D184" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F167" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
-      <c r="B168" s="16" t="s">
+      <c r="F184" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="39"/>
+      <c r="B185" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C185" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="D185" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E168" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F168" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="65" t="s">
+      <c r="E185" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B169" s="61" t="s">
+      <c r="B186" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C169" s="61" t="s">
+      <c r="C186" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D169" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E169" s="12" t="s">
+      <c r="D186" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F169" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="47"/>
-      <c r="B170" s="52" t="s">
+      <c r="F186" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="36"/>
+      <c r="B187" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C187" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D170" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E170" s="56" t="s">
+      <c r="D187" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F170" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="47"/>
-      <c r="B171" s="52" t="s">
+      <c r="F187" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="36"/>
+      <c r="B188" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C171" s="52" t="s">
+      <c r="C188" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D171" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E171" s="56" t="s">
+      <c r="D188" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F171" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="47"/>
-      <c r="B172" s="56" t="s">
+      <c r="F188" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="36"/>
+      <c r="B189" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C172" s="56" t="s">
+      <c r="C189" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D172" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E172" s="56" t="s">
+      <c r="D189" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F172" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="50"/>
-      <c r="B173" s="16" t="s">
+      <c r="F189" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="39"/>
+      <c r="B190" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C173" s="16" t="s">
+      <c r="C190" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D173" s="16" t="s">
+      <c r="D190" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E173" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
+      <c r="E190" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="B174" s="61" t="s">
+      <c r="B191" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C174" s="61" t="s">
+      <c r="C191" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E174" s="12" t="s">
+      <c r="D191" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F174" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
-      <c r="B175" s="52" t="s">
+      <c r="F191" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="37"/>
+      <c r="B192" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C175" s="52" t="s">
+      <c r="C192" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D175" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E175" s="56" t="s">
+      <c r="D192" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F175" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="41"/>
-      <c r="B176" s="56" t="s">
+      <c r="F192" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="37"/>
+      <c r="B193" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="56" t="s">
+      <c r="C193" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D176" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E176" s="56" t="s">
+      <c r="D193" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F176" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
-      <c r="B177" s="16" t="s">
+      <c r="F193" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="38"/>
+      <c r="B194" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C177" s="16" t="s">
+      <c r="C194" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D177" s="16" t="s">
+      <c r="D194" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E177" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F177" s="10" t="s">
+      <c r="E194" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F194" s="10" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>